--- a/Test Cases for A1 Project.xlsx
+++ b/Test Cases for A1 Project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15703" uniqueCount="6922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15704" uniqueCount="6923">
   <si>
     <t>Created By</t>
   </si>
@@ -24628,6 +24628,9 @@
   </si>
   <si>
     <t>Deal Single View</t>
+  </si>
+  <si>
+    <t>TS_DSV_001</t>
   </si>
 </sst>
 </file>
@@ -24771,7 +24774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -24963,6 +24966,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -27244,10 +27248,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27340,6 +27344,11 @@
       </c>
       <c r="N7" s="61" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>6922</v>
       </c>
     </row>
   </sheetData>
